--- a/data/trans_orig/P36$cafe-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36$cafe-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82504604-E4A2-4852-9D99-4759B3289F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9F63476-EA4E-463E-AFE0-DD6E7219C4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5DAA2CCD-51F4-4BB5-A72E-C33BC453B3BD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DF1D4D00-EB4C-45C1-B855-B8957968CD5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="924">
-  <si>
-    <t>Población según alimentos que desayuna habitualmente en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1009">
+  <si>
+    <t>Población según alimentos que desayuna habitualmente (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -61,7 +61,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Café, leche, té, chololate, yogurt,...</t>
@@ -244,7 +244,7 @@
     <t>5,26%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>89,17%</t>
@@ -406,7 +406,7 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>92,61%</t>
@@ -559,7 +559,7 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>92,52%</t>
@@ -709,7 +709,7 @@
     <t>3,34%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>92,55%</t>
@@ -865,1596 +865,1797 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según alimentos que desayuna habitualmente (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>Población según alimentos que desayuna habitualmente (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>77,64%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según alimentos que desayuna habitualmente en 2012</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>Población según alimentos que desayuna habitualmente en 2016</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
     <t>7,4%</t>
   </si>
   <si>
@@ -2473,15 +2674,9 @@
     <t>6,62%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
     <t>92,2%</t>
   </si>
   <si>
@@ -2599,211 +2794,271 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>91,56%</t>
   </si>
   <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
     <t>1,9%</t>
   </si>
   <si>
     <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
   </si>
   <si>
     <t>1,17%</t>
@@ -3221,8 +3476,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0BE923-D43E-4C3B-85B9-B729F1C4A73F}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27930A94-B0E3-415E-96A4-924632A88936}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4411,28 +4666,28 @@
         <v>303</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>167</v>
+        <v>308</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -4441,31 +4696,31 @@
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>54</v>
+        <v>314</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>51</v>
+        <v>316</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -4474,66 +4729,66 @@
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>322</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -4542,31 +4797,31 @@
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -4575,31 +4830,31 @@
         <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>342</v>
+        <v>62</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>345</v>
+        <v>243</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -4608,31 +4863,31 @@
         <v>38</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>350</v>
+        <v>53</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="J43" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -4641,31 +4896,31 @@
         <v>48</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>207</v>
+        <v>355</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="I44" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="J44" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="7" t="s">
+      <c r="K44" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -4674,45 +4929,246 @@
         <v>58</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="G45" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="E51" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="I45" s="7" t="s">
+      <c r="G51" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>367</v>
+      <c r="J51" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -4725,8 +5181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DDD298-33F3-4AAA-B22B-BAD2B1E9333D}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBF4B21-EC69-4E97-95B7-D1CC02AC2C21}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4742,7 +5198,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4813,31 +5269,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4846,31 +5302,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4879,31 +5335,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4912,31 +5368,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4945,31 +5401,31 @@
         <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4978,31 +5434,31 @@
         <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>206</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5013,31 +5469,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5046,31 +5502,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5079,31 +5535,31 @@
         <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5112,31 +5568,31 @@
         <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>447</v>
+        <v>486</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>448</v>
+        <v>313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5145,31 +5601,31 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>307</v>
+        <v>488</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>165</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5178,31 +5634,31 @@
         <v>58</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>454</v>
+        <v>493</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>455</v>
+        <v>494</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>460</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5213,31 +5669,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>464</v>
+        <v>502</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>466</v>
+        <v>504</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>469</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5246,31 +5702,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>470</v>
+        <v>288</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5279,31 +5735,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>199</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5312,31 +5768,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>272</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5345,28 +5801,28 @@
         <v>48</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>219</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>492</v>
+        <v>352</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>495</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>117</v>
@@ -5378,31 +5834,31 @@
         <v>58</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>262</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>257</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5413,31 +5869,31 @@
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>279</v>
+        <v>537</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>508</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5446,31 +5902,31 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5479,31 +5935,31 @@
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>523</v>
+        <v>300</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5512,31 +5968,31 @@
         <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>253</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5545,10 +6001,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>495</v>
+        <v>323</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>261</v>
@@ -5557,19 +6013,19 @@
         <v>212</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>108</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5584,19 +6040,19 @@
         <v>168</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>115</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>168</v>
@@ -5613,31 +6069,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5646,31 +6102,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>241</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5679,31 +6135,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5712,31 +6168,31 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -5745,31 +6201,31 @@
         <v>48</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -5778,7 +6234,7 @@
         <v>58</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>158</v>
@@ -5790,19 +6246,19 @@
         <v>203</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>315</v>
+        <v>610</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>205</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -5813,31 +6269,31 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>501</v>
+        <v>616</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>587</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -5846,31 +6302,31 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>591</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -5879,31 +6335,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>599</v>
+        <v>474</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -5912,31 +6368,31 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>490</v>
+        <v>636</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>495</v>
+        <v>637</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>607</v>
+        <v>270</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>308</v>
+        <v>639</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>209</v>
+        <v>640</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>568</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -5945,31 +6401,31 @@
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>257</v>
+        <v>645</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>270</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -5978,66 +6434,66 @@
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>56</v>
+        <v>648</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>614</v>
+        <v>51</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>615</v>
-      </c>
       <c r="H39" s="7" t="s">
-        <v>404</v>
+        <v>570</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>323</v>
+        <v>650</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>280</v>
+        <v>654</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>623</v>
+        <v>537</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -6046,31 +6502,31 @@
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>628</v>
+        <v>659</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>629</v>
+        <v>660</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>630</v>
+        <v>661</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -6079,31 +6535,31 @@
         <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -6112,31 +6568,31 @@
         <v>38</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>157</v>
+        <v>674</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>644</v>
+        <v>675</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>446</v>
+        <v>320</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>646</v>
+        <v>493</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>119</v>
+        <v>677</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>647</v>
+        <v>115</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>648</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -6145,31 +6601,31 @@
         <v>48</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>170</v>
+        <v>678</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>164</v>
+        <v>679</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>650</v>
+        <v>208</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -6178,45 +6634,246 @@
         <v>58</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="E51" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="K45" s="7" t="s">
+      <c r="J51" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>367</v>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -6229,8 +6886,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9F8A21-4063-400B-813B-0C0F95804B7D}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7208E5-CE4A-4ECC-B12E-671FE66D0250}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6246,7 +6903,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>652</v>
+        <v>715</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6317,31 +6974,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>653</v>
+        <v>716</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>654</v>
+        <v>717</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>656</v>
+        <v>719</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>657</v>
+        <v>720</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>658</v>
+        <v>721</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>659</v>
+        <v>722</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>660</v>
+        <v>723</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>661</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6350,31 +7007,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>588</v>
+        <v>725</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>662</v>
+        <v>726</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>663</v>
+        <v>727</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>664</v>
+        <v>728</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>665</v>
+        <v>729</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>667</v>
+        <v>731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>669</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6383,31 +7040,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>670</v>
+        <v>734</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>672</v>
+        <v>736</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>673</v>
+        <v>737</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>674</v>
+        <v>738</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>675</v>
+        <v>739</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>676</v>
+        <v>740</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>677</v>
+        <v>741</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>678</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6416,31 +7073,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>679</v>
+        <v>743</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>680</v>
+        <v>744</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>681</v>
+        <v>745</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>682</v>
+        <v>746</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>683</v>
+        <v>747</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>684</v>
+        <v>748</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>91</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>685</v>
+        <v>749</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>686</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6449,31 +7106,31 @@
         <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>687</v>
+        <v>750</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>688</v>
+        <v>751</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>689</v>
+        <v>752</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>690</v>
+        <v>753</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>691</v>
+        <v>754</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>692</v>
+        <v>638</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>693</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6482,31 +7139,31 @@
         <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>694</v>
+        <v>756</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>695</v>
+        <v>757</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>696</v>
+        <v>758</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>697</v>
+        <v>759</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>698</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6517,31 +7174,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>699</v>
+        <v>761</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>700</v>
+        <v>762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>701</v>
+        <v>763</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>702</v>
+        <v>764</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>703</v>
+        <v>765</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>704</v>
+        <v>766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>705</v>
+        <v>767</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>706</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6550,31 +7207,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>707</v>
+        <v>769</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>708</v>
+        <v>770</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>666</v>
+        <v>730</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>709</v>
+        <v>771</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>710</v>
+        <v>772</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>711</v>
+        <v>773</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>712</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6583,31 +7240,31 @@
         <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>713</v>
+        <v>775</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>714</v>
+        <v>776</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>715</v>
+        <v>777</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>716</v>
+        <v>778</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>717</v>
+        <v>779</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>718</v>
+        <v>780</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>719</v>
+        <v>781</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>720</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6619,28 +7276,28 @@
         <v>199</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>721</v>
+        <v>783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>722</v>
+        <v>784</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>723</v>
+        <v>785</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>724</v>
+        <v>786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>725</v>
+        <v>787</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>726</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6649,31 +7306,31 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>727</v>
+        <v>789</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>728</v>
+        <v>790</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>729</v>
+        <v>791</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>730</v>
+        <v>792</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>731</v>
+        <v>793</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>732</v>
+        <v>794</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6682,16 +7339,16 @@
         <v>58</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>733</v>
+        <v>795</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>308</v>
+        <v>796</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>734</v>
+        <v>797</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>735</v>
+        <v>798</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>118</v>
@@ -6700,10 +7357,10 @@
         <v>263</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>736</v>
+        <v>799</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>148</v>
@@ -6717,31 +7374,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>737</v>
+        <v>800</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>738</v>
+        <v>801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>739</v>
+        <v>802</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>740</v>
+        <v>803</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>741</v>
+        <v>804</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>742</v>
+        <v>805</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>743</v>
+        <v>806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>744</v>
+        <v>807</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>745</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -6750,31 +7407,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>746</v>
+        <v>809</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>289</v>
+        <v>810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>747</v>
+        <v>811</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>750</v>
+        <v>814</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>751</v>
+        <v>815</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>752</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -6783,31 +7440,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>753</v>
+        <v>817</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>754</v>
+        <v>818</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>755</v>
+        <v>819</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>756</v>
+        <v>820</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>757</v>
+        <v>821</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>758</v>
+        <v>822</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>759</v>
+        <v>823</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>760</v>
+        <v>824</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>761</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -6816,31 +7473,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>762</v>
+        <v>826</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>763</v>
+        <v>827</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>764</v>
+        <v>828</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>140</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>765</v>
+        <v>829</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>139</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>766</v>
+        <v>830</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>767</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -6849,31 +7506,31 @@
         <v>48</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>768</v>
+        <v>832</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>612</v>
+        <v>833</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>769</v>
+        <v>834</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>770</v>
+        <v>835</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>771</v>
+        <v>317</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>772</v>
+        <v>836</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>773</v>
+        <v>837</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -6885,25 +7542,25 @@
         <v>117</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>609</v>
+        <v>838</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>694</v>
+        <v>756</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>774</v>
+        <v>311</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>321</v>
+        <v>640</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>775</v>
+        <v>839</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>256</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>320</v>
+        <v>840</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>54</v>
@@ -6917,31 +7574,31 @@
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>776</v>
+        <v>841</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>777</v>
+        <v>842</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>778</v>
+        <v>843</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>779</v>
+        <v>844</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>780</v>
+        <v>845</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>781</v>
+        <v>846</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>782</v>
+        <v>847</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>783</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -6950,31 +7607,31 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>784</v>
+        <v>849</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>785</v>
+        <v>850</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>786</v>
+        <v>851</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>787</v>
+        <v>852</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>788</v>
+        <v>853</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>789</v>
+        <v>854</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>790</v>
+        <v>855</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>791</v>
+        <v>856</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -6983,31 +7640,31 @@
         <v>28</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>792</v>
+        <v>857</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>793</v>
+        <v>858</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>794</v>
+        <v>859</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>795</v>
+        <v>860</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>796</v>
+        <v>861</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>797</v>
+        <v>862</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>798</v>
+        <v>863</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -7016,31 +7673,31 @@
         <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>294</v>
+        <v>864</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>695</v>
+        <v>757</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>865</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>645</v>
+        <v>710</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>799</v>
+        <v>866</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>801</v>
+        <v>868</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>802</v>
+        <v>304</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>803</v>
+        <v>869</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -7049,31 +7706,31 @@
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>804</v>
+        <v>870</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>311</v>
+        <v>871</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>805</v>
+        <v>872</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>806</v>
+        <v>873</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>799</v>
+        <v>866</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>807</v>
+        <v>874</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>808</v>
+        <v>875</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>809</v>
+        <v>876</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>810</v>
+        <v>877</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -7085,28 +7742,28 @@
         <v>207</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>811</v>
+        <v>681</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>152</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>812</v>
+        <v>878</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>162</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>813</v>
+        <v>309</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -7117,31 +7774,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>814</v>
+        <v>879</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>815</v>
+        <v>880</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>125</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>816</v>
+        <v>881</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>817</v>
+        <v>882</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>818</v>
+        <v>883</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>819</v>
+        <v>884</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>820</v>
+        <v>885</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>821</v>
+        <v>886</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -7150,31 +7807,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>656</v>
+        <v>719</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>822</v>
+        <v>887</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>823</v>
+        <v>888</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>824</v>
+        <v>889</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>825</v>
+        <v>890</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>782</v>
+        <v>847</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>826</v>
+        <v>891</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>827</v>
+        <v>892</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>828</v>
+        <v>893</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -7183,31 +7840,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>829</v>
+        <v>894</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>830</v>
+        <v>895</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>831</v>
+        <v>896</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>832</v>
+        <v>897</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>833</v>
+        <v>898</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>834</v>
+        <v>899</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>835</v>
+        <v>900</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>836</v>
+        <v>901</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>837</v>
+        <v>902</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -7216,31 +7873,31 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>294</v>
+        <v>864</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>838</v>
+        <v>903</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>839</v>
+        <v>904</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>840</v>
+        <v>905</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>809</v>
+        <v>876</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>841</v>
+        <v>906</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>842</v>
+        <v>907</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>67</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>843</v>
+        <v>908</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -7249,28 +7906,28 @@
         <v>48</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>844</v>
+        <v>909</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>163</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>845</v>
+        <v>910</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>268</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>846</v>
+        <v>911</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>847</v>
+        <v>912</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>848</v>
+        <v>913</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>849</v>
+        <v>914</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>140</v>
@@ -7285,25 +7942,25 @@
         <v>162</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>850</v>
+        <v>915</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>851</v>
+        <v>916</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>209</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>852</v>
+        <v>917</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>208</v>
@@ -7317,31 +7974,31 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>853</v>
+        <v>918</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>549</v>
+        <v>919</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>854</v>
+        <v>920</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>855</v>
+        <v>921</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>856</v>
+        <v>922</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>857</v>
+        <v>923</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>858</v>
+        <v>924</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>859</v>
+        <v>925</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>860</v>
+        <v>926</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -7350,31 +8007,31 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>663</v>
+        <v>927</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>861</v>
+        <v>928</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>862</v>
+        <v>929</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>863</v>
+        <v>930</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>864</v>
+        <v>931</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>865</v>
+        <v>932</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>866</v>
+        <v>327</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>934</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -7383,31 +8040,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>868</v>
+        <v>935</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>146</v>
+        <v>758</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>869</v>
+        <v>936</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>296</v>
+        <v>937</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>870</v>
+        <v>938</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>871</v>
+        <v>939</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>872</v>
+        <v>940</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>873</v>
+        <v>941</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>874</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -7416,31 +8073,31 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>531</v>
+        <v>45</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>576</v>
+        <v>406</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>875</v>
+        <v>942</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>876</v>
+        <v>943</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>768</v>
+        <v>944</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>680</v>
+        <v>945</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>877</v>
+        <v>44</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>878</v>
+        <v>523</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>140</v>
+        <v>946</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -7449,31 +8106,31 @@
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>879</v>
+        <v>496</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>880</v>
+        <v>796</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>881</v>
+        <v>315</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>882</v>
+        <v>947</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>356</v>
+        <v>711</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>847</v>
+        <v>818</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>883</v>
+        <v>948</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>694</v>
+        <v>450</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>884</v>
+        <v>949</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -7482,66 +8139,66 @@
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>885</v>
+        <v>319</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>887</v>
+        <v>951</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>888</v>
+        <v>952</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>889</v>
+        <v>539</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>621</v>
+        <v>953</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>177</v>
+        <v>954</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>890</v>
+        <v>955</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>502</v>
+        <v>956</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>891</v>
+        <v>229</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>892</v>
+        <v>957</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -7550,31 +8207,31 @@
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>893</v>
+        <v>772</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>512</v>
+        <v>958</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>825</v>
+        <v>460</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>894</v>
+        <v>959</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>895</v>
+        <v>960</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>896</v>
+        <v>282</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>897</v>
+        <v>961</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>898</v>
+        <v>962</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>70</v>
+        <v>963</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -7583,31 +8240,31 @@
         <v>28</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>899</v>
+        <v>964</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>900</v>
+        <v>965</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>901</v>
+        <v>966</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>902</v>
+        <v>869</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>903</v>
+        <v>44</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>904</v>
+        <v>967</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>637</v>
+        <v>968</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>905</v>
+        <v>969</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>906</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -7616,31 +8273,31 @@
         <v>38</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>907</v>
+        <v>971</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>908</v>
+        <v>839</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>909</v>
+        <v>830</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>910</v>
+        <v>972</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>457</v>
+        <v>201</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>195</v>
+        <v>973</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>911</v>
+        <v>40</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>912</v>
+        <v>103</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>913</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -7649,31 +8306,31 @@
         <v>48</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>486</v>
+        <v>974</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>415</v>
+        <v>975</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>879</v>
+        <v>154</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>644</v>
+        <v>524</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>915</v>
+        <v>559</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>916</v>
+        <v>837</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>917</v>
+        <v>711</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>882</v>
+        <v>976</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -7682,45 +8339,246 @@
         <v>58</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>918</v>
+        <v>321</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>919</v>
+        <v>680</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>355</v>
+        <v>50</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>920</v>
+        <v>321</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>921</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>367</v>
+      <c r="I51" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
